--- a/tbl打包工具/excel/battleEnemyConfig.xlsx
+++ b/tbl打包工具/excel/battleEnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>enemyId</t>
   </si>
@@ -111,47 +111,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>敌部曲阵法ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generalId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unitLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shiqi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌部曲ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌武将ID字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000标识相应位置没有敌部曲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genralName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张曼成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-9031</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>敌部曲阵法ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enemyId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generalId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unitLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shiqi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhenId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌部曲ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌武将ID字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000标识相应位置没有敌部曲</t>
+    <t>1-9031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北宫伯玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩馥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严纲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李大目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐荣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眭固</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡轸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管亥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥蕤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-9031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吕布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -159,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +325,19 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -195,9 +364,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -501,67 +676,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="2" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D2" s="1">
         <v>0</v>
@@ -587,179 +766,1299 @@
       <c r="K2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>20001</v>
       </c>
       <c r="B3" s="1">
-        <v>9002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
+        <v>9001</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G3" s="1">
-        <v>401</v>
+        <v>3001</v>
       </c>
       <c r="H3" s="1">
-        <v>1000</v>
+        <v>404</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="J3" s="1">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>20002</v>
       </c>
       <c r="B4" s="1">
-        <v>9003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
+        <v>9002</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="1">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>2000</v>
+        <v>401</v>
       </c>
       <c r="I4" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>20003</v>
       </c>
       <c r="B5" s="1">
-        <v>9004</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
+        <v>9003</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1000</v>
+        <v>402</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="J5" s="1">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>20004</v>
       </c>
       <c r="B6" s="1">
-        <v>9005</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
+        <v>9004</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>0</v>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="1">
-        <v>403</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>2000</v>
+        <v>401</v>
       </c>
       <c r="I6" s="1">
-        <v>2</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>20005</v>
       </c>
       <c r="B7" s="1">
-        <v>9001</v>
-      </c>
-      <c r="C7" s="1">
+        <v>9005</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>402</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>20006</v>
+      </c>
+      <c r="B8" s="1">
+        <v>9006</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>401</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>80</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>20007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9007</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>402</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>20008</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9008</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>401</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>20009</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9009</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>402</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9010</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3001</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>404</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I12" s="1">
         <v>3000</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J12" s="1">
         <v>3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K12" s="1">
         <v>100</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>20011</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9011</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>404</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>80</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9012</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>403</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>100</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9013</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>401</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>80</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>20014</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9014</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>404</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>20016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9016</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>404</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1">
+        <v>100</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>20017</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9017</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>402</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>100</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>20018</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9018</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>401</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9020</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>401</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>80</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>20021</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9021</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>402</v>
+      </c>
+      <c r="I21" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20022</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9022</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>401</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>20024</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9024</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>404</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" s="1">
+        <v>100</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>20025</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9025</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>404</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1">
+        <v>100</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>20026</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9026</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>401</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>80</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>20027</v>
+      </c>
+      <c r="B26" s="1">
+        <v>9027</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>402</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="1">
+        <v>100</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>20031</v>
+      </c>
+      <c r="B27" s="1">
+        <v>9031</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>401</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>80</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>20033</v>
+      </c>
+      <c r="B28" s="1">
+        <v>9033</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>404</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5000</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>20034</v>
+      </c>
+      <c r="B29" s="1">
+        <v>9034</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>403</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1">
+        <v>100</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>20037</v>
+      </c>
+      <c r="B30" s="1">
+        <v>9037</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>401</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3000</v>
+      </c>
+      <c r="J30" s="1">
+        <v>3</v>
+      </c>
+      <c r="K30" s="1">
+        <v>100</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>20038</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9038</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>402</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1">
+        <v>100</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>20039</v>
+      </c>
+      <c r="B32" s="1">
+        <v>9039</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>401</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1">
+        <v>80</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>20040</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9040</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>402</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>80</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>20046</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9046</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>401</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>80</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>20047</v>
+      </c>
+      <c r="B35" s="1">
+        <v>9047</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>404</v>
+      </c>
+      <c r="I35" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>80</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>20048</v>
+      </c>
+      <c r="B36" s="1">
+        <v>9048</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>402</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1">
+        <v>80</v>
+      </c>
+      <c r="L36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -778,33 +2077,33 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -812,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -820,7 +2119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -828,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -836,7 +2135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -844,7 +2143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -852,7 +2151,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -860,7 +2159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -868,12 +2167,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +2187,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tbl打包工具/excel/battleEnemyConfig.xlsx
+++ b/tbl打包工具/excel/battleEnemyConfig.xlsx
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" activeCellId="1" sqref="O30 O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I3" s="2">
         <v>1000</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I4" s="2">
         <v>1000</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I5" s="2">
         <v>1000</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I6" s="2">
         <v>1000</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I7" s="2">
         <v>1000</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I8" s="2">
         <v>1000</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I9" s="2">
         <v>1000</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I10" s="2">
         <v>1000</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I11" s="2">
         <v>1000</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I12" s="2">
         <v>1000</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I13" s="2">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I14" s="2">
         <v>1000</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I15" s="2">
         <v>1000</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I16" s="2">
         <v>1000</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I17" s="2">
         <v>1000</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I18" s="2">
         <v>1000</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I19" s="2">
         <v>1000</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I20" s="2">
         <v>1000</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="I21" s="2">
         <v>1000</v>
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I22" s="2">
         <v>1000</v>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I23" s="2">
         <v>1000</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="I24" s="2">
         <v>1000</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="I25" s="2">
         <v>1000</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I26" s="2">
         <v>1000</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I27" s="2">
         <v>1000</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="I28" s="2">
         <v>1000</v>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="I29" s="2">
         <v>1000</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I30" s="2">
         <v>1000</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="I31" s="2">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I32" s="2">
         <v>1000</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I33" s="2">
         <v>1000</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I34" s="2">
         <v>1000</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="I35" s="2">
         <v>1000</v>
